--- a/medicine/Sexualité et sexologie/L'Apollonide___Souvenirs_de_la_maison_close/L'Apollonide___Souvenirs_de_la_maison_close.xlsx
+++ b/medicine/Sexualité et sexologie/L'Apollonide___Souvenirs_de_la_maison_close/L'Apollonide___Souvenirs_de_la_maison_close.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Apollonide_:_Souvenirs_de_la_maison_close</t>
+          <t>L'Apollonide_:_Souvenirs_de_la_maison_close</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Apollonide : Souvenirs de la maison close est un film français réalisé par Bertrand Bonello sorti en 2011.
-Il est sélectionné en compétition officielle lors du Festival de Cannes 2011. Le journal Le Monde en parle en ces termes : « La prostitution est ici un théâtre, un miroir tendu au monde pour mieux en révéler la splendeur en même temps que l'horreur[1]. »
+Il est sélectionné en compétition officielle lors du Festival de Cannes 2011. Le journal Le Monde en parle en ces termes : « La prostitution est ici un théâtre, un miroir tendu au monde pour mieux en révéler la splendeur en même temps que l'horreur. »
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Apollonide_:_Souvenirs_de_la_maison_close</t>
+          <t>L'Apollonide_:_Souvenirs_de_la_maison_close</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En novembre 1899, à Paris, l'Apollonide est une maison close haut de gamme. Madeleine (Alice Barnole) « la Juive », une prostituée, rêve que son client le plus régulier (Laurent Lacotte) la demande en mariage. Elle lui raconte son rêve, allongée sur le lit. Il l'attache aux poignets au montant du lit, fait glisser la lame de son couteau sur son corps, puis l'introduit dans sa bouche et coupe les joues à la commissure des lèvres.
 Mars 1900, la blessure laisse sur le visage de Madeleine une cicatrice en forme de sourire mélancolique. L'Apollonide est gérée par Marie-France (Noémie Lvovsky), que ses pensionnaires appellent « Madame ». Il y a entre autres : Léa « la Poupée » (Adèle Haenel), Samira « l'Algérienne » (Hafsia Herzi), Clotilde « Belle cuisse » (Céline Sallette) et Julie « Caca » (Jasmine Trinca). Toutes sont tenues par les dettes qu'elles ont accumulées. Madeleine ne pouvant plus pratiquer est tenue à l'écart des clients et s'occupe de l'intendance. Les familiers de la maison ont leur favorite et leurs fantasmes habituels.
-Le film relate jusqu'à l'aube du XXe la vie de l'Apollonide, théâtre de drames, d'habitudes et de vie. C'est une sorte de huis clos dont les personnages sont les prostituées et leurs clients[2].
+Le film relate jusqu'à l'aube du XXe la vie de l'Apollonide, théâtre de drames, d'habitudes et de vie. C'est une sorte de huis clos dont les personnages sont les prostituées et leurs clients.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Apollonide_:_Souvenirs_de_la_maison_close</t>
+          <t>L'Apollonide_:_Souvenirs_de_la_maison_close</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'Apollonide : Souvenirs de la maison close
 Réalisation : Bertrand Bonello
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Apollonide_:_Souvenirs_de_la_maison_close</t>
+          <t>L'Apollonide_:_Souvenirs_de_la_maison_close</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hafsia Herzi : Samira « l'Algérienne »
 Céline Sallette : Clotilde « Belle cuisse »
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Apollonide_:_Souvenirs_de_la_maison_close</t>
+          <t>L'Apollonide_:_Souvenirs_de_la_maison_close</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
 Plaisir d'amour par Éloïse Decazes.
@@ -654,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Apollonide_:_Souvenirs_de_la_maison_close</t>
+          <t>L'Apollonide_:_Souvenirs_de_la_maison_close</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,9 +694,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 83 % d'opinions favorables pour 29 critiques[4]. Sur Metacritic, il obtient une note moyenne de 75⁄100 pour 9 critiques[3].
-En France, le site Allociné propose une note moyenne de 3,6⁄5 à partir de l'interprétation de critiques provenant de 21 titres de presse[5].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 83 % d'opinions favorables pour 29 critiques. Sur Metacritic, il obtient une note moyenne de 75⁄100 pour 9 critiques.
+En France, le site Allociné propose une note moyenne de 3,6⁄5 à partir de l'interprétation de critiques provenant de 21 titres de presse.
 </t>
         </is>
       </c>
@@ -687,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L%27Apollonide_:_Souvenirs_de_la_maison_close</t>
+          <t>L'Apollonide_:_Souvenirs_de_la_maison_close</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -705,7 +730,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Festival de Cannes 2011 :
 En compétition pour la Palme d'or
